--- a/biology/Botanique/Besi_de_Chaumontel/Besi_de_Chaumontel.xlsx
+++ b/biology/Botanique/Besi_de_Chaumontel/Besi_de_Chaumontel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Besi de Chaumontel est une variété ancienne de poire.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poire de Chaumontel.
-Beurré de Chaumontel[1].
+Beurré de Chaumontel.
 Winter Butterbirne (Beurré d'hiver).
 Chaumontel.
 Bezy, Bési, Bésy de Chaumontel.</t>
@@ -545,9 +559,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une variété ancienne de collection obtenue par Martin Regnault, jardinier du château. L'arbre mère nait, en 1665, d'un sauvageon tout épineux, à Chaumontel, près de Luzarches (Val-d'Oise) et meurt en 1789[2],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une variété ancienne de collection obtenue par Martin Regnault, jardinier du château. L'arbre mère nait, en 1665, d'un sauvageon tout épineux, à Chaumontel, près de Luzarches (Val-d'Oise) et meurt en 1789,.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est assez vigoureux et fertile[2]. 
-L'arbre se plait dans le sol alluvionnaire, fertile, profond et froid de sa région d'origine. Il a également prospéré sur l'île de Jersey d'où on approvisionnait l'Angleterre en poires de cette variété[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez vigoureux et fertile. 
+L'arbre se plait dans le sol alluvionnaire, fertile, profond et froid de sa région d'origine. Il a également prospéré sur l'île de Jersey d'où on approvisionnait l'Angleterre en poires de cette variété.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit moyen, cidoniforme[Note 1], chair pâle, rouge au soleil, mi-fine, mi-cassante, juteuse, sucrée, bonne.
-Maturité atteinte de décembre à janvier[2].
+Maturité atteinte de décembre à janvier.
 </t>
         </is>
       </c>
